--- a/Excel/City.xlsx
+++ b/Excel/City.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,9 @@
     <t>默认值</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>北京</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>Yy</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1116,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
@@ -1195,10 +1201,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1206,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>40000000</v>
@@ -1215,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1226,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>60000000</v>
@@ -1235,10 +1241,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/City.xlsx
+++ b/Excel/City.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="City" sheetId="1" r:id="rId1"/>
+    <sheet name="CityS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,9 @@
     <t>CityY@pm</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>标识符</t>
   </si>
   <si>
@@ -117,12 +120,18 @@
     <t>注释3</t>
   </si>
   <si>
+    <t>职业名</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>JobType</t>
+  </si>
+  <si>
     <t>默认值</t>
   </si>
   <si>
@@ -138,6 +147,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Dependency</t>
+  </si>
+  <si>
     <t>上海</t>
   </si>
   <si>
@@ -147,7 +159,13 @@
     <t>Yy</t>
   </si>
   <si>
+    <t>TenantFarmer</t>
+  </si>
+  <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -795,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +821,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,13 +1137,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
@@ -1133,7 +1154,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,19 +1173,22 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1172,25 +1196,31 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
@@ -1198,21 +1228,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="39" spans="1:7">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>40000000</v>
@@ -1221,18 +1251,21 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="39" spans="1:7">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>60000000</v>
@@ -1241,15 +1274,21 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
